--- a/CSV/access.xlsx
+++ b/CSV/access.xlsx
@@ -661,7 +661,7 @@
     <t>United Republic of Tanzania</t>
   </si>
   <si>
-    <t>United States of America</t>
+    <t>United States</t>
   </si>
   <si>
     <t>Uruguay</t>
